--- a/Documentacion/BocetoTablaFinal.xlsx
+++ b/Documentacion/BocetoTablaFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/PruebaStreamLit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/PruebaStreamLit/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_AD4D2F04E46CFB4ACB3E20254516D6E2683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234DFDB0-B55C-430C-8C26-195177F98E1C}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_AD4D2F04E46CFB4ACB3E20254516D6E2683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A96839-13F6-49F6-AD14-591A1C3318D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Nombre Entidad</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Rentab. sem</t>
   </si>
   <si>
-    <t>Rentab. año</t>
-  </si>
-  <si>
     <t>ACCION FIDUCIARIACARTERA COLECTIVA ABIERTA ACCION UNO55</t>
   </si>
   <si>
@@ -204,6 +201,27 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t># VECES NEGATIVO</t>
+  </si>
+  <si>
+    <t>semana</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>Ytd</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>Rentab. Año= RN.Ytd o  RN.1Y?</t>
   </si>
 </sst>
 </file>
@@ -213,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +259,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -279,12 +310,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -302,12 +354,55 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1250,15 +1345,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985F8EA9-92FD-4D50-9876-D7AB2B2AD91B}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="19" max="19" width="21.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1314,12 +1412,63 @@
         <v>49</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>51</v>
       </c>
       <c r="B2" s="9">
         <v>44927</v>
@@ -1331,19 +1480,19 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>11014</v>
       </c>
       <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -1376,9 +1525,9 @@
         <v>5.0415349999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9">
         <v>44928</v>
@@ -1390,19 +1539,19 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>11014</v>
       </c>
       <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1435,60 +1584,193 @@
         <v>5.0951899999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:39" ht="50" x14ac:dyDescent="0.35">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="I8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="U11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="Z11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AA11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="AB11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AC11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AD11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AE11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AH11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AI11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AJ11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AK11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AL11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AM11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="X15" s="1"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W23" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="23:23" x14ac:dyDescent="0.35">
+      <c r="W28" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U11:AM11">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bancolombia">
+      <formula>NOT(ISERROR(SEARCH("bancolombia",U11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="T.P comparable">
+      <formula>NOT(ISERROR(SEARCH("T.P comparable",U11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>